--- a/StructureDefinition-commcare-vaccine-immunization.xlsx
+++ b/StructureDefinition-commcare-vaccine-immunization.xlsx
@@ -345,7 +345,7 @@
     <t>lastDose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/last-dose}
+    <t xml:space="preserve">Extension {https://jembi.github.io/commcare-vaccine-ig//StructureDefinition/last-dose}
 </t>
   </si>
   <si>
@@ -362,7 +362,7 @@
     <t>doseGiven</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/dose-given}
+    <t xml:space="preserve">Extension {https://jembi.github.io/commcare-vaccine-ig//StructureDefinition/dose-given}
 </t>
   </si>
   <si>
